--- a/swordmap/evaluation/concernLocation.xlsx
+++ b/swordmap/evaluation/concernLocation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
   <si>
     <t>search task</t>
   </si>
@@ -545,8 +545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -631,21 +631,13 @@
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
         <v>6</v>
       </c>
@@ -688,38 +680,26 @@
       <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="D4">
-        <v>4</v>
-      </c>
-      <c r="E4">
-        <v>5</v>
-      </c>
       <c r="F4">
         <v>0</v>
       </c>
-      <c r="G4">
-        <v>337</v>
-      </c>
-      <c r="H4">
-        <v>5011</v>
-      </c>
       <c r="I4">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="J4" s="2">
-        <v>1.1900000000000001E-2</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="K4" s="2">
-        <v>1E-3</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="L4" s="2">
         <v>0</v>
       </c>
       <c r="M4" s="2">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="N4" s="2">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="O4" s="2">
         <v>0</v>
@@ -729,11 +709,11 @@
       </c>
       <c r="Q4">
         <f>2*(J4*M4)/(J4+M4)</f>
-        <v>2.3451163936445373E-2</v>
+        <v>0.21068139963167587</v>
       </c>
       <c r="R4">
         <f>2*(K4*N4)/(K4+N4)</f>
-        <v>1.9980019980019984E-3</v>
+        <v>9.7396630934150061E-2</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -747,38 +727,26 @@
       <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="D5">
-        <v>6</v>
-      </c>
-      <c r="E5">
-        <v>8</v>
-      </c>
       <c r="F5">
         <v>3</v>
       </c>
-      <c r="G5">
-        <v>171</v>
-      </c>
-      <c r="H5">
-        <v>5861</v>
-      </c>
       <c r="I5">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J5" s="2">
-        <v>3.5099999999999999E-2</v>
+        <v>0.04</v>
       </c>
       <c r="K5" s="2">
-        <v>1.4E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="L5" s="2">
-        <v>6.25E-2</v>
+        <v>6.5199999999999994E-2</v>
       </c>
       <c r="M5" s="2">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="N5" s="2">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="O5" s="2">
         <v>0.375</v>
@@ -788,15 +756,15 @@
       </c>
       <c r="Q5">
         <f t="shared" ref="Q5:Q9" si="0">2*(J5*M5)/(J5+M5)</f>
-        <v>6.7061520825372561E-2</v>
+        <v>6.8965517241379323E-2</v>
       </c>
       <c r="R5">
         <f t="shared" ref="R5:R9" si="1">2*(K5*N5)/(K5+N5)</f>
-        <v>2.7960854803275414E-3</v>
+        <v>3.3934070947872702E-3</v>
       </c>
       <c r="S5">
         <f t="shared" ref="S5:S11" si="2">2*(L5*O5)/(L5+O5)</f>
-        <v>0.10714285714285714</v>
+        <v>0.11108587005906406</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -809,29 +777,17 @@
       <c r="C6" t="s">
         <v>14</v>
       </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
       <c r="F6">
         <v>2</v>
       </c>
-      <c r="G6">
-        <v>21</v>
-      </c>
-      <c r="H6">
-        <v>244</v>
-      </c>
       <c r="I6">
         <v>7</v>
       </c>
       <c r="J6" s="2">
-        <v>9.5200000000000007E-2</v>
+        <v>0.28599999999999998</v>
       </c>
       <c r="K6" s="2">
-        <v>8.2000000000000007E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="L6" s="2">
         <v>0.28570000000000001</v>
@@ -840,7 +796,7 @@
         <v>0.5</v>
       </c>
       <c r="N6" s="2">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="O6" s="2">
         <v>0.5</v>
@@ -850,11 +806,11 @@
       </c>
       <c r="Q6">
         <f t="shared" si="0"/>
-        <v>0.15994623655913981</v>
+        <v>0.36386768447837148</v>
       </c>
       <c r="R6">
         <f t="shared" si="1"/>
-        <v>1.6135379771743411E-2</v>
+        <v>9.9337748344370865E-3</v>
       </c>
       <c r="S6">
         <f t="shared" si="2"/>
@@ -869,20 +825,8 @@
       <c r="C7" t="s">
         <v>16</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>5</v>
-      </c>
       <c r="F7">
         <v>0</v>
-      </c>
-      <c r="G7">
-        <v>7</v>
-      </c>
-      <c r="H7">
-        <v>622</v>
       </c>
       <c r="I7">
         <v>18</v>
@@ -891,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="2">
-        <v>8.0000000000000002E-3</v>
+        <v>0</v>
       </c>
       <c r="L7" s="2">
         <v>0</v>
@@ -900,7 +844,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" s="2">
         <v>0</v>
@@ -912,8 +856,7 @@
         <v>0</v>
       </c>
       <c r="R7">
-        <f t="shared" si="1"/>
-        <v>1.5873015873015872E-2</v>
+        <v>0</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -929,29 +872,17 @@
       <c r="C8" t="s">
         <v>19</v>
       </c>
-      <c r="D8">
-        <v>11</v>
-      </c>
-      <c r="E8">
-        <v>11</v>
-      </c>
       <c r="F8">
         <v>8</v>
       </c>
-      <c r="G8">
-        <v>887</v>
-      </c>
-      <c r="H8">
-        <v>1666</v>
-      </c>
       <c r="I8">
         <v>85</v>
       </c>
       <c r="J8" s="2">
-        <v>1.24E-2</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="K8" s="2">
-        <v>6.6E-3</v>
+        <v>9.4000000000000004E-3</v>
       </c>
       <c r="L8" s="2">
         <v>9.4100000000000003E-2</v>
@@ -970,11 +901,11 @@
       </c>
       <c r="Q8">
         <f t="shared" si="0"/>
-        <v>2.449624654286843E-2</v>
+        <v>7.1359691417550622E-2</v>
       </c>
       <c r="R8">
         <f t="shared" si="1"/>
-        <v>1.3113451221935229E-2</v>
+        <v>1.8624925698434713E-2</v>
       </c>
       <c r="S8">
         <f t="shared" si="2"/>
@@ -989,38 +920,26 @@
       <c r="C9" t="s">
         <v>21</v>
       </c>
-      <c r="D9">
-        <v>6</v>
-      </c>
-      <c r="E9">
-        <v>9</v>
-      </c>
       <c r="F9">
         <v>6</v>
       </c>
-      <c r="G9">
-        <v>610</v>
-      </c>
-      <c r="H9">
-        <v>1644</v>
-      </c>
       <c r="I9">
         <v>81</v>
       </c>
       <c r="J9" s="2">
-        <v>9.7999999999999997E-3</v>
+        <v>1.61E-2</v>
       </c>
       <c r="K9" s="2">
-        <v>5.4999999999999997E-3</v>
+        <v>6.6E-3</v>
       </c>
       <c r="L9" s="2">
         <v>7.4099999999999999E-2</v>
       </c>
       <c r="M9" s="2">
-        <v>0.66669999999999996</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="N9" s="2">
-        <v>1</v>
+        <v>0.77800000000000002</v>
       </c>
       <c r="O9" s="2">
         <v>0.66669999999999996</v>
@@ -1030,11 +949,11 @@
       </c>
       <c r="Q9">
         <f t="shared" si="0"/>
-        <v>1.9316067997043607E-2</v>
+        <v>3.0714981380693212E-2</v>
       </c>
       <c r="R9">
         <f t="shared" si="1"/>
-        <v>1.0939830929885628E-2</v>
+        <v>1.3088962528677032E-2</v>
       </c>
       <c r="S9">
         <f t="shared" si="2"/>
@@ -1049,23 +968,11 @@
       <c r="C10" t="s">
         <v>23</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
       <c r="F10">
         <v>2</v>
       </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
       <c r="I10">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J10" s="2">
         <v>0</v>
@@ -1074,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="2">
-        <v>2.5600000000000001E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="M10" s="2">
         <v>0</v>
@@ -1096,7 +1003,7 @@
       </c>
       <c r="S10">
         <f t="shared" si="2"/>
-        <v>4.438398335933437E-2</v>
+        <v>4.4983912817851586E-2</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1109,20 +1016,8 @@
       <c r="C11" t="s">
         <v>26</v>
       </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
       <c r="F11">
         <v>9</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
       </c>
       <c r="I11">
         <v>78</v>
@@ -1164,34 +1059,40 @@
         <v>39</v>
       </c>
       <c r="J12" s="2">
-        <v>2.0549999999999999E-2</v>
+        <f>AVERAGE(J4:J11)</f>
+        <v>6.5262500000000001E-2</v>
       </c>
       <c r="K12" s="2">
-        <v>3.8E-3</v>
+        <f t="shared" ref="K12:O12" si="3">AVERAGE(K4:K11)</f>
+        <v>9.4624999999999987E-3</v>
       </c>
       <c r="L12" s="2">
-        <v>0.65739999999999998</v>
+        <f t="shared" si="3"/>
+        <v>8.2562500000000011E-2</v>
       </c>
       <c r="M12" s="2">
-        <v>0.42749999999999999</v>
+        <f t="shared" si="3"/>
+        <v>0.31037500000000001</v>
       </c>
       <c r="N12" s="2">
-        <v>0.6875</v>
+        <f t="shared" si="3"/>
+        <v>0.50037500000000001</v>
       </c>
       <c r="O12" s="2">
-        <v>0.3982</v>
+        <f t="shared" si="3"/>
+        <v>0.39821250000000002</v>
       </c>
       <c r="Q12">
         <f>AVERAGE(Q4:Q11)</f>
-        <v>3.6783904482608723E-2</v>
+        <v>9.3198659268708808E-2</v>
       </c>
       <c r="R12">
         <f>AVERAGE(R4:R11)</f>
-        <v>7.6069706593637088E-3</v>
+        <v>1.7804712636310768E-2</v>
       </c>
       <c r="S12">
         <f>AVERAGE(S4:S11)</f>
-        <v>0.12689880699828107</v>
+        <v>0.12746667479512161</v>
       </c>
     </row>
   </sheetData>

--- a/swordmap/evaluation/concernLocation.xlsx
+++ b/swordmap/evaluation/concernLocation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t>search task</t>
   </si>
@@ -101,91 +101,6 @@
   </si>
   <si>
     <t>recall</t>
-  </si>
-  <si>
-    <t>methods</t>
-  </si>
-  <si>
-    <t>jReportFrame.dropNewTextField(Point, String, String, String)
-jReportFrame.dropNewTextField(Point, String, String)
-jReportPanel.drop(DropTargetDropEvent)
-TextFieldReportElement.TextFieldReportElement(int, int, int, int)
-TextReportElement.TextReportElement(int, int, int, int)</t>
-  </si>
-  <si>
-    <t>IReportCompiler.IReportCompiler()
-IReportCompiler.run()
-IReportCompiler.start()
-MainFrame.getTranslatedCompileDirectory()
-MainFrame.isUsingCurrentFilesDirectoryForCompiles()
-MainFrame.jButtonCompilerActionPerformed(ActionEvent)
-MainFrame.jButtonRun1ActionPerformed(ActionEvent)
-MainFrame.jButtonRun2ActionPerformed(ActionEvent)</t>
-  </si>
-  <si>
-    <t>Mp3OrganizerThread.findFiles()
-FileGatherer.gatherDirectoryFromFileSystem(ArrayList, File, String, FileFilter, boolean, int)
-FileGatherer.gatherDirectory(File, String, FileFilter, boolean)
-Mp3OrganizerThread.run()</t>
-  </si>
-  <si>
-    <t>MovieContainer.reload()
-MovieContainer.ConfigureWebConnection()
-MovieContainer.start()
-MovieItem.MovieItem(MovieContainer, String, String, Hashtable, int, int, int)
-MovieContainer.findShows(String)</t>
-  </si>
-  <si>
-    <t>JBidMouse.DoAction(Object, String, AuctionEntry)
-FilterManager.addAuction(AuctionEntry)
-AuctionsManager.addEntry(AuctionEntry)
-JBidMouse.DoAdd(Component)
-AuctionEntry.AuctionEntry(String)
-AuctionServerManager.add_entry(AuctionEntry)
-AuctionServer.registerAuction(AuctionEntry)
-JBidMouse.addAuction(String)
-JBidMouse.cmdAddAuction(String)
-Auctions.addEntry(AuctionEntry)
-AuctionsManager.newAuctionEntry(String)</t>
-  </si>
-  <si>
-    <t>JBidMouse.DoSave(Component)
-JBidMouse.DoAction(Object, String, AuctionEntry)
-AuctionsManager.saveAuctions()
-AuctionsManager.backupByDate(String, File)
-AuctionsManager.preserveFiles(String)
-AuctionsManager.ensureDirectories(String)
-AuctionsManager.buildSaveBuffer(XMLElement, XMLElement)
-AuctionsManager.needSwapSaves(String)
-AuctionsManager.makeBackupFilename(String, String)</t>
-  </si>
-  <si>
-    <t>AuctionEntry.prepareSnipe(Currency, int)
-JBidMouse.DoAction(Object, String, AuctionEntry)
-AuctionEntry.setMultiSnipe(MultiSnipe)
-ebayServer.messageAction(Object)
-SnipeDialog.getQuantity()
-JBidMouse.checkBinBid(AuctionEntry, Currency, Component, String)
-SnipeDialog.getAmount()
-AuctionEntry.prepareSnipe(Currency)
-AuctionServer.getMinimumBidIncrement(Currency, int)
-JBidMouse.genBidSnipeHTML(AuctionEntry, Currency)
-JBidMouse.DoSnipe(Component, AuctionEntry)
-JBidMouse.DoMultiSnipe(Component)</t>
-  </si>
-  <si>
-    <t>JavaLayerPlayerImpl.getState()
-JavaLayerPlayerImpl.play(File, float, long, float)
-FIFO.launch(int)
-TypeManager.getTypeByExtension(String)
-JavaLayerPlayerImpl.seek(float)
-Player.play(File, float, long)
-Type.getPlayerImpl()
-AbstractPlaylistRepositoryView.play(PlaylistFileItem)
-LogicalPlaylistRepositoryView.play(PlaylistFileItem)
-PhysicalPlaylistRepositoryView.play(PlaylistFileItem)
-IPlayerImpl.play(File, float, long, float)
-PlaylistFile.play()</t>
   </si>
   <si>
     <t>F-measure</t>
@@ -227,15 +142,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -543,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S12"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -562,75 +474,69 @@
     <col min="11" max="11" width="21.140625" customWidth="1"/>
     <col min="12" max="13" width="13.42578125" customWidth="1"/>
     <col min="14" max="14" width="20.5703125" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" customWidth="1"/>
-    <col min="16" max="16" width="23.42578125" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" customWidth="1"/>
-    <col min="18" max="18" width="20.5703125" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" customWidth="1"/>
+    <col min="15" max="16" width="13.42578125" customWidth="1"/>
+    <col min="17" max="17" width="20.5703125" customWidth="1"/>
+    <col min="18" max="19" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4" t="s">
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4" t="s">
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4" t="s">
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4" t="s">
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="Q1" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
@@ -659,19 +565,18 @@
       <c r="O3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="4"/>
+      <c r="P3" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="Q3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
@@ -704,23 +609,20 @@
       <c r="O4" s="2">
         <v>0</v>
       </c>
-      <c r="P4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q4">
+      <c r="P4">
         <f>2*(J4*M4)/(J4+M4)</f>
         <v>0.21068139963167587</v>
       </c>
-      <c r="R4">
+      <c r="Q4">
         <f>2*(K4*N4)/(K4+N4)</f>
         <v>9.7396630934150061E-2</v>
       </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
+      <c r="R4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -751,24 +653,21 @@
       <c r="O5" s="2">
         <v>0.375</v>
       </c>
-      <c r="P5" s="3" t="s">
-        <v>31</v>
+      <c r="P5">
+        <f t="shared" ref="P5:P9" si="0">2*(J5*M5)/(J5+M5)</f>
+        <v>6.8965517241379323E-2</v>
       </c>
       <c r="Q5">
-        <f t="shared" ref="Q5:Q9" si="0">2*(J5*M5)/(J5+M5)</f>
-        <v>6.8965517241379323E-2</v>
+        <f t="shared" ref="Q5:Q9" si="1">2*(K5*N5)/(K5+N5)</f>
+        <v>3.3934070947872702E-3</v>
       </c>
       <c r="R5">
-        <f t="shared" ref="R5:R9" si="1">2*(K5*N5)/(K5+N5)</f>
-        <v>3.3934070947872702E-3</v>
-      </c>
-      <c r="S5">
-        <f t="shared" ref="S5:S11" si="2">2*(L5*O5)/(L5+O5)</f>
+        <f t="shared" ref="R5:R11" si="2">2*(L5*O5)/(L5+O5)</f>
         <v>0.11108587005906406</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B6" t="s">
@@ -801,24 +700,21 @@
       <c r="O6" s="2">
         <v>0.5</v>
       </c>
-      <c r="P6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q6">
+      <c r="P6">
         <f t="shared" si="0"/>
         <v>0.36386768447837148</v>
       </c>
-      <c r="R6">
+      <c r="Q6">
         <f t="shared" si="1"/>
         <v>9.9337748344370865E-3</v>
       </c>
-      <c r="S6">
+      <c r="R6">
         <f t="shared" si="2"/>
         <v>0.36362479317805779</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
+    <row r="7" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
       <c r="B7" t="s">
         <v>15</v>
       </c>
@@ -849,8 +745,8 @@
       <c r="O7" s="2">
         <v>0</v>
       </c>
-      <c r="P7" s="3" t="s">
-        <v>33</v>
+      <c r="P7">
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -858,12 +754,9 @@
       <c r="R7">
         <v>0</v>
       </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+    </row>
+    <row r="8" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B8" t="s">
@@ -896,24 +789,21 @@
       <c r="O8" s="2">
         <v>0.72729999999999995</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q8">
+      <c r="P8">
         <f t="shared" si="0"/>
         <v>7.1359691417550622E-2</v>
       </c>
-      <c r="R8">
+      <c r="Q8">
         <f t="shared" si="1"/>
         <v>1.8624925698434713E-2</v>
       </c>
-      <c r="S8">
+      <c r="R8">
         <f t="shared" si="2"/>
         <v>0.16663971268565864</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
+    <row r="9" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
       <c r="B9" t="s">
         <v>20</v>
       </c>
@@ -944,24 +834,21 @@
       <c r="O9" s="2">
         <v>0.66669999999999996</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q9">
+      <c r="P9">
         <f t="shared" si="0"/>
         <v>3.0714981380693212E-2</v>
       </c>
-      <c r="R9">
+      <c r="Q9">
         <f t="shared" si="1"/>
         <v>1.3088962528677032E-2</v>
       </c>
-      <c r="S9">
+      <c r="R9">
         <f t="shared" si="2"/>
         <v>0.13337599892008639</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
+    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
       <c r="B10" t="s">
         <v>22</v>
       </c>
@@ -992,21 +879,18 @@
       <c r="O10" s="2">
         <v>0.16669999999999999</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>36</v>
+      <c r="P10">
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
       <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
         <f t="shared" si="2"/>
         <v>4.4983912817851586E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -1040,23 +924,20 @@
       <c r="O11" s="2">
         <v>0.75</v>
       </c>
-      <c r="P11" s="3" t="s">
-        <v>37</v>
+      <c r="P11">
+        <v>0</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
       <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
         <f t="shared" si="2"/>
         <v>0.20002311070025425</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="J12" s="2">
         <f>AVERAGE(J4:J11)</f>
@@ -1082,27 +963,26 @@
         <f t="shared" si="3"/>
         <v>0.39821250000000002</v>
       </c>
+      <c r="P12">
+        <f>AVERAGE(P4:P11)</f>
+        <v>9.3198659268708808E-2</v>
+      </c>
       <c r="Q12">
         <f>AVERAGE(Q4:Q11)</f>
-        <v>9.3198659268708808E-2</v>
+        <v>1.7804712636310768E-2</v>
       </c>
       <c r="R12">
         <f>AVERAGE(R4:R11)</f>
-        <v>1.7804712636310768E-2</v>
-      </c>
-      <c r="S12">
-        <f>AVERAGE(S4:S11)</f>
         <v>0.12746667479512161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="Q1:S2"/>
+  <mergeCells count="10">
+    <mergeCell ref="P1:R2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="J1:L2"/>
     <mergeCell ref="M1:O2"/>
-    <mergeCell ref="P1:P3"/>
     <mergeCell ref="A1:B3"/>
     <mergeCell ref="C1:C3"/>
     <mergeCell ref="D1:F2"/>
